--- a/dhis2/hat_reports/java-scripts/input/BYT2022.xlsx
+++ b/dhis2/hat_reports/java-scripts/input/BYT2022.xlsx
@@ -2615,7 +2615,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2665,12 +2665,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2728,7 +2722,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2770,10 +2764,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2856,9 +2846,9 @@
   </sheetPr>
   <dimension ref="A2:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -2873,7 +2863,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.22"/>
@@ -27738,10 +27728,10 @@
   <dimension ref="A2:B37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -28001,7 +27991,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -28009,11 +27999,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="6" t="s">
         <v>803</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
